--- a/Table/Table_xls/技能相关表/t特技特效显示表.xlsx
+++ b/Table/Table_xls/技能相关表/t特技特效显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="277">
   <si>
     <t>技能id</t>
   </si>
@@ -667,6 +667,366 @@
     <t>&lt;T t="物理攻击敌方单体，同时减少敌方魔法值。"&gt;&lt;/T&gt;</t>
   </si>
   <si>
+    <t>战令●物攻</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高多个己方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理攻击，持续到战斗结束，同类状态不叠加。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>战令●法攻</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高多个己方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法术攻击，持续到战斗结束，同类状态不叠加。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>战令●物防</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高多个己方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理防御，持续到战斗结束，同类状态不叠加。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>战令●法防</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高多个己方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法术防御，持续到战斗结束，同类状态不叠加。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>战令●破攻</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低多个敌方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理攻击，持续到战斗结束，同类状态不叠加。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>战令●破法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低多个敌方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法术攻击，持续到战斗结束，同类状态不叠加。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>战令●破甲</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低多个敌方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理防御，持续到战斗结束，同类状态不叠加。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>战令●破抗</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低多个敌方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法术防御，持续到战斗结束，同类状态不叠加。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
     <t>物理暴击 +8</t>
   </si>
   <si>
@@ -1109,6 +1469,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;T t="PVE</t>
     </r>
     <r>
@@ -1670,6 +2035,550 @@
       </rPr>
       <t>"&gt;&lt;/T&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>体质+5%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体质增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>智力+5%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>力量+5%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>力量增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>耐力+5%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>耐力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>速度+5%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>速度增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>体质+10%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体质增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>智力+10%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>力量+10%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>力量增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>耐力+10%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>耐力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>速度+10%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>速度增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>体质+15%</t>
+  </si>
+  <si>
+    <t>&lt;T t="体质增加15%"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>智力+15%</t>
+  </si>
+  <si>
+    <t>&lt;T t="智力增加15%"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>力量+15%</t>
+  </si>
+  <si>
+    <t>&lt;T t="力量增加15%"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>耐力+15%</t>
+  </si>
+  <si>
+    <t>&lt;T t="耐力增加15%"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>速度+15%</t>
+  </si>
+  <si>
+    <t>&lt;T t="速度增加15%"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>物理攻击+5%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理攻击增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>物理攻击+10%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理攻击增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>物理带隐藏属性</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理攻击增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，物理带隐藏属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>法术攻击+5%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法术攻击增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>法术攻击+10%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法术攻击增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>法术带隐藏属性</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;T t="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法术攻击增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，物理带隐藏属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>控制命中+5%</t>
+  </si>
+  <si>
+    <t>控制命中+10%</t>
+  </si>
+  <si>
+    <t>控制带隐藏属性</t>
+  </si>
+  <si>
+    <t>治疗强度+5%</t>
+  </si>
+  <si>
+    <t>治疗强度+10%</t>
+  </si>
+  <si>
+    <t>治疗带隐藏属性</t>
   </si>
 </sst>
 </file>
@@ -1678,8 +2587,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1706,34 +2615,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1746,7 +2653,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,81 +2744,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1850,14 +2758,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1884,13 +2793,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,37 +2871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,79 +2889,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,7 +2931,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,19 +2979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,6 +2990,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2093,26 +3017,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2135,32 +3059,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2180,46 +3095,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2228,104 +3143,104 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2364,9 +3279,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2759,23 +3680,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:U136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="16.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="9.14285714285714" style="1"/>
-    <col min="11" max="11" width="24.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="9.14285714285714" style="1"/>
-    <col min="13" max="13" width="16.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5740740740741" customWidth="1"/>
+    <col min="10" max="10" width="9.13888888888889" style="1"/>
+    <col min="11" max="11" width="24.287037037037" customWidth="1"/>
+    <col min="12" max="12" width="9.13888888888889" style="1"/>
+    <col min="13" max="13" width="16.4259259259259" style="1" customWidth="1"/>
     <col min="14" max="14" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:15">
+    <row r="1" ht="14.4" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2822,7 +3743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:21">
+    <row r="2" ht="14.4" spans="1:21">
       <c r="A2" s="3">
         <v>420001</v>
       </c>
@@ -2869,10 +3790,10 @@
         <v>4127</v>
       </c>
       <c r="P2" s="15"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-    </row>
-    <row r="3" ht="13.5" spans="1:21">
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" ht="14.4" spans="1:21">
       <c r="A3" s="3">
         <v>420002</v>
       </c>
@@ -2919,10 +3840,10 @@
         <v>4127</v>
       </c>
       <c r="P3" s="15"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-    </row>
-    <row r="4" ht="13.5" spans="1:21">
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" ht="14.4" spans="1:21">
       <c r="A4" s="3">
         <v>420003</v>
       </c>
@@ -2969,10 +3890,10 @@
         <v>4127</v>
       </c>
       <c r="P4" s="15"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-    </row>
-    <row r="5" ht="13.5" spans="1:21">
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" ht="14.4" spans="1:21">
       <c r="A5" s="3">
         <v>420004</v>
       </c>
@@ -3019,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="15"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-    </row>
-    <row r="6" ht="13.5" spans="1:21">
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" ht="14.4" spans="1:21">
       <c r="A6" s="3">
         <v>420005</v>
       </c>
@@ -3069,10 +3990,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="15"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-    </row>
-    <row r="7" ht="13.5" spans="1:21">
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" ht="14.4" spans="1:21">
       <c r="A7" s="3">
         <v>420006</v>
       </c>
@@ -3119,10 +4040,10 @@
         <v>1</v>
       </c>
       <c r="P7" s="15"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-    </row>
-    <row r="8" ht="13.5" spans="1:21">
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" ht="14.4" spans="1:21">
       <c r="A8" s="3">
         <v>420007</v>
       </c>
@@ -3169,10 +4090,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="15"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-    </row>
-    <row r="9" ht="13.5" spans="1:21">
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" ht="14.4" spans="1:21">
       <c r="A9" s="3">
         <v>420008</v>
       </c>
@@ -3219,10 +4140,10 @@
         <v>4127</v>
       </c>
       <c r="P9" s="15"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-    </row>
-    <row r="10" ht="13.5" spans="1:21">
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" ht="14.4" spans="1:21">
       <c r="A10" s="3">
         <v>420009</v>
       </c>
@@ -3269,10 +4190,10 @@
         <v>4127</v>
       </c>
       <c r="P10" s="15"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-    </row>
-    <row r="11" ht="13.5" spans="1:21">
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" ht="14.4" spans="1:21">
       <c r="A11" s="3">
         <v>420010</v>
       </c>
@@ -3319,10 +4240,10 @@
         <v>4127</v>
       </c>
       <c r="P11" s="15"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-    </row>
-    <row r="12" ht="13.5" spans="1:21">
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" ht="14.4" spans="1:21">
       <c r="A12" s="3">
         <v>420011</v>
       </c>
@@ -3369,10 +4290,10 @@
         <v>4127</v>
       </c>
       <c r="P12" s="15"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-    </row>
-    <row r="13" ht="13.5" spans="1:21">
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" ht="14.4" spans="1:21">
       <c r="A13" s="3">
         <v>420012</v>
       </c>
@@ -3419,10 +4340,10 @@
         <v>4127</v>
       </c>
       <c r="P13" s="15"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-    </row>
-    <row r="14" ht="13.5" spans="1:21">
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" ht="14.4" spans="1:21">
       <c r="A14" s="3">
         <v>420013</v>
       </c>
@@ -3469,10 +4390,10 @@
         <v>4127</v>
       </c>
       <c r="P14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-    </row>
-    <row r="15" ht="13.5" spans="1:21">
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" ht="14.4" spans="1:21">
       <c r="A15" s="3">
         <v>420014</v>
       </c>
@@ -3519,10 +4440,10 @@
         <v>4127</v>
       </c>
       <c r="P15" s="15"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-    </row>
-    <row r="16" ht="13.5" spans="1:21">
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" ht="14.4" spans="1:21">
       <c r="A16" s="3">
         <v>420015</v>
       </c>
@@ -3569,10 +4490,10 @@
         <v>4127</v>
       </c>
       <c r="P16" s="15"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-    </row>
-    <row r="17" ht="13.5" spans="1:21">
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+    </row>
+    <row r="17" ht="14.4" spans="1:21">
       <c r="A17" s="3">
         <v>420016</v>
       </c>
@@ -3619,10 +4540,10 @@
         <v>480</v>
       </c>
       <c r="P17" s="15"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-    </row>
-    <row r="18" ht="13.5" spans="1:21">
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" ht="14.4" spans="1:21">
       <c r="A18" s="3">
         <v>420017</v>
       </c>
@@ -3669,10 +4590,10 @@
         <v>4127</v>
       </c>
       <c r="P18" s="15"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-    </row>
-    <row r="19" ht="13.5" spans="1:21">
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+    </row>
+    <row r="19" ht="14.4" spans="1:21">
       <c r="A19" s="3">
         <v>420018</v>
       </c>
@@ -3719,10 +4640,10 @@
         <v>4127</v>
       </c>
       <c r="P19" s="15"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-    </row>
-    <row r="20" ht="13.5" spans="1:21">
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+    </row>
+    <row r="20" ht="14.4" spans="1:21">
       <c r="A20" s="3">
         <v>420019</v>
       </c>
@@ -3769,10 +4690,10 @@
         <v>480</v>
       </c>
       <c r="P20" s="15"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-    </row>
-    <row r="21" ht="13.5" spans="1:21">
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+    </row>
+    <row r="21" ht="14.4" spans="1:21">
       <c r="A21" s="3">
         <v>420020</v>
       </c>
@@ -3819,10 +4740,10 @@
         <v>480</v>
       </c>
       <c r="P21" s="15"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-    </row>
-    <row r="22" ht="13.5" spans="1:21">
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+    </row>
+    <row r="22" ht="14.4" spans="1:21">
       <c r="A22" s="3">
         <v>420021</v>
       </c>
@@ -3869,10 +4790,10 @@
         <v>4127</v>
       </c>
       <c r="P22" s="15"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-    </row>
-    <row r="23" ht="13.5" spans="1:21">
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+    </row>
+    <row r="23" ht="14.4" spans="1:21">
       <c r="A23" s="3">
         <v>420022</v>
       </c>
@@ -3919,10 +4840,10 @@
         <v>4127</v>
       </c>
       <c r="P23" s="15"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-    </row>
-    <row r="24" ht="13.5" spans="1:21">
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+    </row>
+    <row r="24" ht="14.4" spans="1:21">
       <c r="A24" s="3">
         <v>420023</v>
       </c>
@@ -3969,10 +4890,10 @@
         <v>480</v>
       </c>
       <c r="P24" s="15"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-    </row>
-    <row r="25" ht="13.5" spans="1:21">
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+    </row>
+    <row r="25" ht="14.4" spans="1:21">
       <c r="A25" s="3">
         <v>420024</v>
       </c>
@@ -4019,10 +4940,10 @@
         <v>480</v>
       </c>
       <c r="P25" s="15"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-    </row>
-    <row r="26" ht="13.5" spans="1:21">
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+    </row>
+    <row r="26" ht="14.4" spans="1:21">
       <c r="A26" s="3">
         <v>420025</v>
       </c>
@@ -4069,10 +4990,10 @@
         <v>4127</v>
       </c>
       <c r="P26" s="15"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-    </row>
-    <row r="27" ht="13.5" spans="1:21">
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" ht="14.4" spans="1:21">
       <c r="A27" s="3">
         <v>420026</v>
       </c>
@@ -4119,10 +5040,10 @@
         <v>4127</v>
       </c>
       <c r="P27" s="15"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-    </row>
-    <row r="28" ht="13.5" spans="1:21">
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+    </row>
+    <row r="28" ht="14.4" spans="1:21">
       <c r="A28" s="3">
         <v>420027</v>
       </c>
@@ -4169,10 +5090,10 @@
         <v>480</v>
       </c>
       <c r="P28" s="15"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-    </row>
-    <row r="29" ht="13.5" spans="1:21">
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+    </row>
+    <row r="29" ht="14.4" spans="1:21">
       <c r="A29" s="3">
         <v>420028</v>
       </c>
@@ -4219,10 +5140,10 @@
         <v>480</v>
       </c>
       <c r="P29" s="15"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-    </row>
-    <row r="30" ht="13.5" spans="1:21">
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+    </row>
+    <row r="30" ht="14.4" spans="1:21">
       <c r="A30" s="3">
         <v>420029</v>
       </c>
@@ -4269,10 +5190,10 @@
         <v>4127</v>
       </c>
       <c r="P30" s="15"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-    </row>
-    <row r="31" ht="13.5" spans="1:21">
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+    </row>
+    <row r="31" ht="14.4" spans="1:21">
       <c r="A31" s="3">
         <v>420030</v>
       </c>
@@ -4319,10 +5240,10 @@
         <v>4127</v>
       </c>
       <c r="P31" s="15"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-    </row>
-    <row r="32" ht="13.5" spans="1:21">
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+    </row>
+    <row r="32" ht="14.4" spans="1:21">
       <c r="A32" s="3">
         <v>420031</v>
       </c>
@@ -4369,10 +5290,10 @@
         <v>480</v>
       </c>
       <c r="P32" s="15"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-    </row>
-    <row r="33" ht="13.5" spans="1:21">
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+    </row>
+    <row r="33" ht="14.4" spans="1:21">
       <c r="A33" s="3">
         <v>420032</v>
       </c>
@@ -4419,10 +5340,10 @@
         <v>480</v>
       </c>
       <c r="P33" s="15"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-    </row>
-    <row r="34" ht="13.5" spans="1:21">
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+    </row>
+    <row r="34" ht="14.4" spans="1:21">
       <c r="A34" s="3">
         <v>420033</v>
       </c>
@@ -4469,404 +5390,436 @@
         <v>480</v>
       </c>
       <c r="P34" s="15"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-    </row>
-    <row r="35" ht="13.5" spans="1:21">
-      <c r="A35" s="7">
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+    </row>
+    <row r="35" ht="14.4" spans="1:21">
+      <c r="A35" s="3">
+        <v>420034</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>244</v>
+      </c>
+      <c r="J35" s="12">
+        <v>2</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="12">
+        <v>10</v>
+      </c>
+      <c r="M35" s="1">
+        <v>120</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" s="14">
+        <v>4127</v>
+      </c>
+      <c r="P35" s="15"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+    </row>
+    <row r="36" ht="14.4" spans="1:21">
+      <c r="A36" s="3">
+        <v>420035</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>244</v>
+      </c>
+      <c r="J36" s="12">
+        <v>2</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="12">
+        <v>10</v>
+      </c>
+      <c r="M36" s="1">
+        <v>120</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O36" s="14">
+        <v>4127</v>
+      </c>
+      <c r="P36" s="15"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+    </row>
+    <row r="37" ht="14.4" spans="1:21">
+      <c r="A37" s="3">
+        <v>420036</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>244</v>
+      </c>
+      <c r="J37" s="12">
+        <v>2</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="12">
+        <v>10</v>
+      </c>
+      <c r="M37" s="1">
+        <v>120</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" s="14">
+        <v>4127</v>
+      </c>
+      <c r="P37" s="15"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+    </row>
+    <row r="38" ht="14.4" spans="1:21">
+      <c r="A38" s="3">
+        <v>420037</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>244</v>
+      </c>
+      <c r="J38" s="12">
+        <v>2</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="12">
+        <v>10</v>
+      </c>
+      <c r="M38" s="1">
+        <v>120</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O38" s="14">
+        <v>4127</v>
+      </c>
+      <c r="P38" s="15"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+    </row>
+    <row r="39" ht="14.4" spans="1:21">
+      <c r="A39" s="3">
+        <v>420038</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>244</v>
+      </c>
+      <c r="J39" s="12">
+        <v>2</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="12">
+        <v>5</v>
+      </c>
+      <c r="M39" s="1">
+        <v>120</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O39" s="14">
+        <v>480</v>
+      </c>
+      <c r="P39" s="15"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+    </row>
+    <row r="40" ht="14.4" spans="1:21">
+      <c r="A40" s="3">
+        <v>420039</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>244</v>
+      </c>
+      <c r="J40" s="12">
+        <v>2</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="12">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>120</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="O40" s="14">
+        <v>480</v>
+      </c>
+      <c r="P40" s="15"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+    </row>
+    <row r="41" ht="14.4" spans="1:21">
+      <c r="A41" s="3">
+        <v>420040</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>244</v>
+      </c>
+      <c r="J41" s="12">
+        <v>2</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="12">
+        <v>5</v>
+      </c>
+      <c r="M41" s="1">
+        <v>120</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" s="14">
+        <v>480</v>
+      </c>
+      <c r="P41" s="15"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+    </row>
+    <row r="42" ht="14.4" spans="1:21">
+      <c r="A42" s="3">
+        <v>420041</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>244</v>
+      </c>
+      <c r="J42" s="12">
+        <v>2</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="12">
+        <v>5</v>
+      </c>
+      <c r="M42" s="1">
+        <v>120</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="O42" s="14">
+        <v>480</v>
+      </c>
+      <c r="P42" s="15"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+    </row>
+    <row r="43" ht="14.4" spans="1:21">
+      <c r="A43" s="7">
         <v>430001</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J35" s="18">
-        <v>1</v>
-      </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O35" s="7">
-        <v>1</v>
-      </c>
-      <c r="P35" s="15"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-    </row>
-    <row r="36" ht="13.5" spans="1:21">
-      <c r="A36" s="7">
-        <v>430002</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J36" s="18">
-        <v>1</v>
-      </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O36" s="7">
-        <v>1</v>
-      </c>
-      <c r="P36" s="15"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-    </row>
-    <row r="37" ht="13.5" spans="1:21">
-      <c r="A37" s="7">
-        <v>430003</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="18">
-        <v>1</v>
-      </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O37" s="7">
-        <v>1</v>
-      </c>
-      <c r="P37" s="15"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-    </row>
-    <row r="38" ht="13.5" spans="1:21">
-      <c r="A38" s="7">
-        <v>430004</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" s="18">
-        <v>1</v>
-      </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O38" s="7">
-        <v>1</v>
-      </c>
-      <c r="P38" s="15"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-    </row>
-    <row r="39" ht="13.5" spans="1:21">
-      <c r="A39" s="7">
-        <v>430005</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="18">
-        <v>1</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O39" s="7">
-        <v>1</v>
-      </c>
-      <c r="P39" s="15"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-    </row>
-    <row r="40" ht="13.5" spans="1:21">
-      <c r="A40" s="7">
-        <v>430006</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8">
-        <v>0</v>
-      </c>
-      <c r="I40" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="18">
-        <v>1</v>
-      </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N40" s="8" t="s">
+      <c r="C43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="O40" s="7">
-        <v>1</v>
-      </c>
-      <c r="P40" s="15"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-    </row>
-    <row r="41" ht="13.5" spans="1:21">
-      <c r="A41" s="7">
-        <v>430007</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J41" s="18">
-        <v>1</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O41" s="7">
-        <v>1</v>
-      </c>
-      <c r="P41" s="15"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-    </row>
-    <row r="42" ht="13.5" spans="1:21">
-      <c r="A42" s="7">
-        <v>430008</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J42" s="18">
-        <v>1</v>
-      </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="O42" s="7">
-        <v>1</v>
-      </c>
-      <c r="P42" s="15"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-    </row>
-    <row r="43" ht="13.5" spans="1:21">
-      <c r="A43" s="7">
-        <v>430009</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="J43" s="18">
         <v>1</v>
@@ -4877,21 +5830,21 @@
         <v>-1</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="O43" s="7">
         <v>1</v>
       </c>
       <c r="P43" s="15"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-    </row>
-    <row r="44" ht="13.5" spans="1:21">
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+    </row>
+    <row r="44" ht="14.4" spans="1:21">
       <c r="A44" s="7">
-        <v>430010</v>
+        <v>430002</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>16</v>
@@ -4912,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J44" s="18">
         <v>1</v>
@@ -4923,21 +5876,21 @@
         <v>-1</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O44" s="7">
         <v>1</v>
       </c>
       <c r="P44" s="15"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-    </row>
-    <row r="45" ht="13.5" spans="1:21">
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+    </row>
+    <row r="45" ht="14.4" spans="1:21">
       <c r="A45" s="7">
-        <v>430011</v>
+        <v>430003</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>16</v>
@@ -4958,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J45" s="18">
         <v>1</v>
@@ -4969,21 +5922,21 @@
         <v>-1</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="O45" s="7">
         <v>1</v>
       </c>
       <c r="P45" s="15"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-    </row>
-    <row r="46" ht="13.5" spans="1:21">
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+    </row>
+    <row r="46" ht="14.4" spans="1:21">
       <c r="A46" s="7">
-        <v>430012</v>
+        <v>430004</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>16</v>
@@ -5004,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J46" s="18">
         <v>1</v>
@@ -5015,21 +5968,21 @@
         <v>-1</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="O46" s="7">
         <v>1</v>
       </c>
       <c r="P46" s="15"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-    </row>
-    <row r="47" ht="13.5" spans="1:21">
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+    </row>
+    <row r="47" ht="14.4" spans="1:21">
       <c r="A47" s="7">
-        <v>430013</v>
+        <v>430005</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>16</v>
@@ -5050,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J47" s="18">
         <v>1</v>
@@ -5061,21 +6014,21 @@
         <v>-1</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="O47" s="7">
         <v>1</v>
       </c>
       <c r="P47" s="15"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-    </row>
-    <row r="48" ht="13.5" spans="1:21">
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+    </row>
+    <row r="48" ht="14.4" spans="1:21">
       <c r="A48" s="7">
-        <v>430014</v>
+        <v>430006</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>16</v>
@@ -5096,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J48" s="18">
         <v>1</v>
@@ -5107,21 +6060,21 @@
         <v>-1</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O48" s="7">
         <v>1</v>
       </c>
       <c r="P48" s="15"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-    </row>
-    <row r="49" ht="13.5" spans="1:21">
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+    </row>
+    <row r="49" ht="14.4" spans="1:21">
       <c r="A49" s="7">
-        <v>430015</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>121</v>
+        <v>430007</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>16</v>
@@ -5142,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J49" s="18">
         <v>1</v>
@@ -5153,42 +6106,42 @@
         <v>-1</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="O49" s="7">
         <v>1</v>
       </c>
       <c r="P49" s="15"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-    </row>
-    <row r="50" ht="13.5" spans="1:21">
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+    </row>
+    <row r="50" ht="14.4" spans="1:21">
       <c r="A50" s="7">
-        <v>430016</v>
+        <v>430008</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="8">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8">
-        <v>0</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="J50" s="18">
         <v>1</v>
@@ -5199,18 +6152,18 @@
         <v>-1</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O50" s="7">
         <v>1</v>
       </c>
       <c r="P50" s="15"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-    </row>
-    <row r="51" ht="13.5" spans="1:21">
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+    </row>
+    <row r="51" ht="14.4" spans="1:21">
       <c r="A51" s="7">
-        <v>430017</v>
+        <v>430009</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>125</v>
@@ -5245,18 +6198,18 @@
         <v>-1</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="O51" s="7">
         <v>1</v>
       </c>
       <c r="P51" s="15"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-    </row>
-    <row r="52" ht="13.5" spans="1:21">
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+    </row>
+    <row r="52" ht="14.4" spans="1:21">
       <c r="A52" s="7">
-        <v>430018</v>
+        <v>430010</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>127</v>
@@ -5291,18 +6244,18 @@
         <v>-1</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O52" s="7">
         <v>1</v>
       </c>
       <c r="P52" s="15"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-    </row>
-    <row r="53" ht="13.5" spans="1:21">
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+    </row>
+    <row r="53" ht="14.4" spans="1:21">
       <c r="A53" s="7">
-        <v>430019</v>
+        <v>430011</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>129</v>
@@ -5337,18 +6290,18 @@
         <v>-1</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="O53" s="7">
         <v>1</v>
       </c>
       <c r="P53" s="15"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-    </row>
-    <row r="54" ht="13.5" spans="1:21">
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+    </row>
+    <row r="54" ht="14.4" spans="1:21">
       <c r="A54" s="7">
-        <v>430020</v>
+        <v>430012</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>131</v>
@@ -5383,18 +6336,18 @@
         <v>-1</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="O54" s="7">
         <v>1</v>
       </c>
       <c r="P54" s="15"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-    </row>
-    <row r="55" ht="13.5" spans="1:21">
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+    </row>
+    <row r="55" ht="14.4" spans="1:21">
       <c r="A55" s="7">
-        <v>430021</v>
+        <v>430013</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>133</v>
@@ -5429,18 +6382,18 @@
         <v>-1</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="O55" s="7">
         <v>1</v>
       </c>
       <c r="P55" s="15"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-    </row>
-    <row r="56" ht="13.5" spans="1:21">
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+    </row>
+    <row r="56" ht="14.4" spans="1:21">
       <c r="A56" s="7">
-        <v>430022</v>
+        <v>430014</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>135</v>
@@ -5475,18 +6428,18 @@
         <v>-1</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O56" s="7">
         <v>1</v>
       </c>
       <c r="P56" s="15"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-    </row>
-    <row r="57" ht="13.5" spans="1:21">
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+    </row>
+    <row r="57" ht="14.4" spans="1:21">
       <c r="A57" s="7">
-        <v>430023</v>
+        <v>430015</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>137</v>
@@ -5521,20 +6474,20 @@
         <v>-1</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="O57" s="7">
         <v>1</v>
       </c>
       <c r="P57" s="15"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-    </row>
-    <row r="58" ht="13.5" spans="1:21">
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+    </row>
+    <row r="58" ht="14.4" spans="1:21">
       <c r="A58" s="7">
-        <v>430024</v>
-      </c>
-      <c r="B58" s="7" t="s">
+        <v>430016</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -5567,20 +6520,20 @@
         <v>-1</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O58" s="7">
         <v>1</v>
       </c>
       <c r="P58" s="15"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-    </row>
-    <row r="59" ht="13.5" spans="1:21">
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+    </row>
+    <row r="59" ht="14.4" spans="1:21">
       <c r="A59" s="7">
-        <v>430025</v>
-      </c>
-      <c r="B59" s="9" t="s">
+        <v>430017</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -5613,42 +6566,42 @@
         <v>-1</v>
       </c>
       <c r="N59" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O59" s="7">
+        <v>1</v>
+      </c>
+      <c r="P59" s="15"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+    </row>
+    <row r="60" ht="14.4" spans="1:21">
+      <c r="A60" s="7">
+        <v>430018</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="O59" s="7">
-        <v>1</v>
-      </c>
-      <c r="P59" s="15"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-    </row>
-    <row r="60" ht="13.5" spans="1:21">
-      <c r="A60" s="7">
-        <v>430026</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="8">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8">
-        <v>0</v>
-      </c>
-      <c r="G60" s="8">
-        <v>0</v>
-      </c>
-      <c r="H60" s="8">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="J60" s="18">
         <v>1</v>
@@ -5658,43 +6611,43 @@
       <c r="M60" s="1">
         <v>-1</v>
       </c>
-      <c r="N60" s="20" t="s">
+      <c r="N60" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O60" s="7">
+        <v>1</v>
+      </c>
+      <c r="P60" s="15"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+    </row>
+    <row r="61" ht="14.4" spans="1:21">
+      <c r="A61" s="7">
+        <v>430019</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="8">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0</v>
+      </c>
+      <c r="G61" s="8">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="O60" s="7">
-        <v>1</v>
-      </c>
-      <c r="P60" s="15"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-    </row>
-    <row r="61" ht="13.5" spans="1:21">
-      <c r="A61" s="7">
-        <v>430027</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="8">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>0</v>
-      </c>
-      <c r="G61" s="8">
-        <v>0</v>
-      </c>
-      <c r="H61" s="8">
-        <v>0</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="J61" s="18">
         <v>1</v>
@@ -5704,22 +6657,22 @@
       <c r="M61" s="1">
         <v>-1</v>
       </c>
-      <c r="N61" s="20" t="s">
-        <v>149</v>
+      <c r="N61" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="O61" s="7">
         <v>1</v>
       </c>
       <c r="P61" s="15"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="21"/>
-    </row>
-    <row r="62" ht="13.5" spans="1:21">
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+    </row>
+    <row r="62" ht="14.4" spans="1:21">
       <c r="A62" s="7">
-        <v>430028</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>150</v>
+        <v>430020</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>16</v>
@@ -5740,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J62" s="18">
         <v>1</v>
@@ -5751,21 +6704,21 @@
         <v>-1</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="O62" s="7">
         <v>1</v>
       </c>
       <c r="P62" s="15"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-    </row>
-    <row r="63" ht="13.5" spans="1:21">
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+    </row>
+    <row r="63" ht="14.4" spans="1:21">
       <c r="A63" s="7">
-        <v>430029</v>
+        <v>430021</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>16</v>
@@ -5786,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J63" s="18">
         <v>1</v>
@@ -5797,21 +6750,21 @@
         <v>-1</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="O63" s="7">
         <v>1</v>
       </c>
       <c r="P63" s="15"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="21"/>
-    </row>
-    <row r="64" ht="13.5" spans="1:21">
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+    </row>
+    <row r="64" ht="14.4" spans="1:21">
       <c r="A64" s="7">
-        <v>430030</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>156</v>
+        <v>430022</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -5832,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J64" s="18">
         <v>1</v>
@@ -5843,21 +6796,21 @@
         <v>-1</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="O64" s="7">
         <v>1</v>
       </c>
       <c r="P64" s="15"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-    </row>
-    <row r="65" ht="13.5" spans="1:21">
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+    </row>
+    <row r="65" ht="14.4" spans="1:21">
       <c r="A65" s="7">
-        <v>430031</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>159</v>
+        <v>430023</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -5878,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J65" s="18">
         <v>1</v>
@@ -5888,22 +6841,22 @@
       <c r="M65" s="1">
         <v>-1</v>
       </c>
-      <c r="N65" s="20" t="s">
-        <v>161</v>
+      <c r="N65" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="O65" s="7">
         <v>1</v>
       </c>
       <c r="P65" s="15"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+    </row>
+    <row r="66" ht="14.4" spans="1:21">
       <c r="A66" s="7">
-        <v>430032</v>
+        <v>430024</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>16</v>
@@ -5924,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J66" s="18">
         <v>1</v>
@@ -5935,18 +6888,21 @@
         <v>-1</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="O66" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66" s="15"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+    </row>
+    <row r="67" ht="14.4" spans="1:21">
       <c r="A67" s="7">
-        <v>430033</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>164</v>
+        <v>430025</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>16</v>
@@ -5966,8 +6922,8 @@
       <c r="H67" s="8">
         <v>0</v>
       </c>
-      <c r="I67" s="8">
-        <v>377</v>
+      <c r="I67" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="J67" s="18">
         <v>1</v>
@@ -5978,18 +6934,21 @@
         <v>-1</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O67" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67" s="15"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+    </row>
+    <row r="68" ht="14.4" spans="1:21">
       <c r="A68" s="7">
-        <v>430034</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>166</v>
+        <v>430026</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>16</v>
@@ -6010,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="J68" s="18">
         <v>1</v>
@@ -6020,19 +6979,22 @@
       <c r="M68" s="1">
         <v>-1</v>
       </c>
-      <c r="N68" s="8" t="s">
-        <v>167</v>
+      <c r="N68" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="O68" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68" s="15"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+    </row>
+    <row r="69" ht="14.4" spans="1:21">
       <c r="A69" s="7">
-        <v>430035</v>
+        <v>430027</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>16</v>
@@ -6053,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J69" s="18">
         <v>1</v>
@@ -6063,19 +7025,22 @@
       <c r="M69" s="1">
         <v>-1</v>
       </c>
-      <c r="N69" s="8" t="s">
-        <v>169</v>
+      <c r="N69" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="O69" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69" s="15"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+    </row>
+    <row r="70" ht="14.4" spans="1:21">
       <c r="A70" s="7">
-        <v>430036</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>170</v>
+        <v>430028</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>16</v>
@@ -6095,8 +7060,8 @@
       <c r="H70" s="8">
         <v>0</v>
       </c>
-      <c r="I70" s="8">
-        <v>380</v>
+      <c r="I70" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="J70" s="18">
         <v>1</v>
@@ -6107,18 +7072,21 @@
         <v>-1</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O70" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" ht="13.5" spans="1:21">
-      <c r="A71" s="22">
-        <v>430040</v>
+      <c r="P70" s="15"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+    </row>
+    <row r="71" ht="14.4" spans="1:21">
+      <c r="A71" s="7">
+        <v>430029</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -6139,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="J71" s="18">
         <v>1</v>
@@ -6150,42 +7118,42 @@
         <v>-1</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="O71" s="7">
         <v>1</v>
       </c>
       <c r="P71" s="15"/>
-      <c r="T71" s="21"/>
-      <c r="U71" s="21"/>
-    </row>
-    <row r="72" ht="13.5" spans="1:21">
-      <c r="A72" s="22">
-        <v>430041</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+    </row>
+    <row r="72" ht="14.4" spans="1:21">
+      <c r="A72" s="7">
+        <v>430030</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="8">
+        <v>0</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="8">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8">
-        <v>0</v>
-      </c>
-      <c r="G72" s="8">
-        <v>0</v>
-      </c>
-      <c r="H72" s="8">
-        <v>0</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="J72" s="18">
         <v>1</v>
@@ -6196,21 +7164,21 @@
         <v>-1</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="O72" s="7">
         <v>1</v>
       </c>
       <c r="P72" s="15"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-    </row>
-    <row r="73" ht="13.5" spans="1:21">
-      <c r="A73" s="22">
-        <v>430042</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>174</v>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+    </row>
+    <row r="73" ht="14.4" spans="1:21">
+      <c r="A73" s="7">
+        <v>430031</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>16</v>
@@ -6231,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="J73" s="18">
         <v>1</v>
@@ -6241,22 +7209,22 @@
       <c r="M73" s="1">
         <v>-1</v>
       </c>
-      <c r="N73" s="8" t="s">
-        <v>87</v>
+      <c r="N73" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="O73" s="7">
         <v>1</v>
       </c>
       <c r="P73" s="15"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="21"/>
-    </row>
-    <row r="74" ht="13.5" spans="1:21">
-      <c r="A74" s="22">
-        <v>430043</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>175</v>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="7">
+        <v>430032</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>16</v>
@@ -6277,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="J74" s="18">
         <v>1</v>
@@ -6288,21 +7256,18 @@
         <v>-1</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="O74" s="7">
         <v>1</v>
       </c>
-      <c r="P74" s="15"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-    </row>
-    <row r="75" ht="13.5" spans="1:21">
-      <c r="A75" s="22">
-        <v>430044</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>176</v>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="7">
+        <v>430033</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>16</v>
@@ -6322,8 +7287,8 @@
       <c r="H75" s="8">
         <v>0</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>126</v>
+      <c r="I75" s="8">
+        <v>377</v>
       </c>
       <c r="J75" s="18">
         <v>1</v>
@@ -6334,21 +7299,18 @@
         <v>-1</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="O75" s="7">
         <v>1</v>
       </c>
-      <c r="P75" s="15"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-    </row>
-    <row r="76" ht="13.5" spans="1:21">
-      <c r="A76" s="22">
-        <v>430045</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>177</v>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="7">
+        <v>430034</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>16</v>
@@ -6369,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="J76" s="18">
         <v>1</v>
@@ -6380,21 +7342,18 @@
         <v>-1</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="O76" s="7">
         <v>1</v>
       </c>
-      <c r="P76" s="15"/>
-      <c r="T76" s="21"/>
-      <c r="U76" s="21"/>
-    </row>
-    <row r="77" ht="13.5" spans="1:21">
-      <c r="A77" s="22">
-        <v>430046</v>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="7">
+        <v>430035</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>16</v>
@@ -6415,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="J77" s="18">
         <v>1</v>
@@ -6425,22 +7384,19 @@
       <c r="M77" s="1">
         <v>-1</v>
       </c>
-      <c r="N77" s="20" t="s">
-        <v>179</v>
+      <c r="N77" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="O77" s="7">
         <v>1</v>
       </c>
-      <c r="P77" s="15"/>
-      <c r="T77" s="21"/>
-      <c r="U77" s="21"/>
-    </row>
-    <row r="78" ht="13.5" spans="1:21">
-      <c r="A78" s="22">
-        <v>430047</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>180</v>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="7">
+        <v>430036</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>16</v>
@@ -6460,8 +7416,8 @@
       <c r="H78" s="8">
         <v>0</v>
       </c>
-      <c r="I78" s="8" t="s">
-        <v>126</v>
+      <c r="I78" s="8">
+        <v>380</v>
       </c>
       <c r="J78" s="18">
         <v>1</v>
@@ -6471,22 +7427,19 @@
       <c r="M78" s="1">
         <v>-1</v>
       </c>
-      <c r="N78" s="20" t="s">
-        <v>179</v>
+      <c r="N78" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="O78" s="7">
         <v>1</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="T78" s="21"/>
-      <c r="U78" s="21"/>
-    </row>
-    <row r="79" ht="13.5" spans="1:21">
-      <c r="A79" s="22">
-        <v>430048</v>
+    </row>
+    <row r="79" ht="14.4" spans="1:21">
+      <c r="A79" s="21">
+        <v>430040</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -6507,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J79" s="18">
         <v>1</v>
@@ -6517,22 +7470,22 @@
       <c r="M79" s="1">
         <v>-1</v>
       </c>
-      <c r="N79" s="20" t="s">
-        <v>179</v>
+      <c r="N79" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="O79" s="7">
         <v>1</v>
       </c>
       <c r="P79" s="15"/>
-      <c r="T79" s="21"/>
-      <c r="U79" s="21"/>
-    </row>
-    <row r="80" ht="13.5" spans="1:21">
-      <c r="A80" s="22">
-        <v>430049</v>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+    </row>
+    <row r="80" ht="14.4" spans="1:21">
+      <c r="A80" s="21">
+        <v>430041</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>16</v>
@@ -6553,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J80" s="18">
         <v>1</v>
@@ -6563,22 +7516,22 @@
       <c r="M80" s="1">
         <v>-1</v>
       </c>
-      <c r="N80" s="20" t="s">
-        <v>179</v>
+      <c r="N80" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="O80" s="7">
         <v>1</v>
       </c>
       <c r="P80" s="15"/>
-      <c r="T80" s="21"/>
-      <c r="U80" s="21"/>
-    </row>
-    <row r="81" ht="13.5" spans="1:21">
-      <c r="A81" s="22">
-        <v>430050</v>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+    </row>
+    <row r="81" ht="14.4" spans="1:21">
+      <c r="A81" s="21">
+        <v>430042</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>16</v>
@@ -6599,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J81" s="18">
         <v>1</v>
@@ -6609,22 +7562,22 @@
       <c r="M81" s="1">
         <v>-1</v>
       </c>
-      <c r="N81" s="20" t="s">
-        <v>179</v>
+      <c r="N81" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="O81" s="7">
         <v>1</v>
       </c>
       <c r="P81" s="15"/>
-      <c r="T81" s="21"/>
-      <c r="U81" s="21"/>
-    </row>
-    <row r="82" ht="13.5" spans="1:21">
-      <c r="A82" s="22">
-        <v>430051</v>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+    </row>
+    <row r="82" ht="14.4" spans="1:16">
+      <c r="A82" s="21">
+        <v>430043</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>16</v>
@@ -6645,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J82" s="18">
         <v>1</v>
@@ -6655,22 +7608,20 @@
       <c r="M82" s="1">
         <v>-1</v>
       </c>
-      <c r="N82" s="20" t="s">
-        <v>179</v>
+      <c r="N82" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="O82" s="7">
         <v>1</v>
       </c>
       <c r="P82" s="15"/>
-      <c r="T82" s="21"/>
-      <c r="U82" s="21"/>
-    </row>
-    <row r="83" ht="13.5" spans="1:21">
-      <c r="A83" s="22">
-        <v>430052</v>
+    </row>
+    <row r="83" ht="14.4" spans="1:21">
+      <c r="A83" s="21">
+        <v>430044</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>16</v>
@@ -6691,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J83" s="18">
         <v>1</v>
@@ -6701,22 +7652,22 @@
       <c r="M83" s="1">
         <v>-1</v>
       </c>
-      <c r="N83" s="20" t="s">
-        <v>186</v>
+      <c r="N83" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="O83" s="7">
         <v>1</v>
       </c>
       <c r="P83" s="15"/>
-      <c r="T83" s="21"/>
-      <c r="U83" s="21"/>
-    </row>
-    <row r="84" ht="13.5" spans="1:21">
-      <c r="A84" s="22">
-        <v>430053</v>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+    </row>
+    <row r="84" ht="14.4" spans="1:21">
+      <c r="A84" s="21">
+        <v>430045</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>16</v>
@@ -6737,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J84" s="18">
         <v>1</v>
@@ -6747,22 +7698,22 @@
       <c r="M84" s="1">
         <v>-1</v>
       </c>
-      <c r="N84" s="20" t="s">
-        <v>186</v>
+      <c r="N84" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="O84" s="7">
         <v>1</v>
       </c>
       <c r="P84" s="15"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-    </row>
-    <row r="85" ht="13.5" spans="1:21">
-      <c r="A85" s="22">
-        <v>430054</v>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+    </row>
+    <row r="85" ht="14.4" spans="1:21">
+      <c r="A85" s="21">
+        <v>430046</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>16</v>
@@ -6783,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J85" s="18">
         <v>1</v>
@@ -6793,22 +7744,22 @@
       <c r="M85" s="1">
         <v>-1</v>
       </c>
-      <c r="N85" s="20" t="s">
-        <v>186</v>
+      <c r="N85" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="O85" s="7">
         <v>1</v>
       </c>
       <c r="P85" s="15"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-    </row>
-    <row r="86" ht="13.5" spans="1:21">
-      <c r="A86" s="22">
-        <v>430055</v>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+    </row>
+    <row r="86" ht="14.4" spans="1:16">
+      <c r="A86" s="21">
+        <v>430047</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>16</v>
@@ -6829,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J86" s="18">
         <v>1</v>
@@ -6839,22 +7790,20 @@
       <c r="M86" s="1">
         <v>-1</v>
       </c>
-      <c r="N86" s="20" t="s">
-        <v>186</v>
+      <c r="N86" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="O86" s="7">
         <v>1</v>
       </c>
       <c r="P86" s="15"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-    </row>
-    <row r="87" ht="13.5" spans="1:21">
-      <c r="A87" s="22">
-        <v>430056</v>
+    </row>
+    <row r="87" ht="14.4" spans="1:21">
+      <c r="A87" s="21">
+        <v>430048</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>16</v>
@@ -6875,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J87" s="18">
         <v>1</v>
@@ -6885,22 +7834,22 @@
       <c r="M87" s="1">
         <v>-1</v>
       </c>
-      <c r="N87" s="20" t="s">
-        <v>186</v>
+      <c r="N87" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="O87" s="7">
         <v>1</v>
       </c>
       <c r="P87" s="15"/>
-      <c r="T87" s="21"/>
-      <c r="U87" s="21"/>
-    </row>
-    <row r="88" ht="13.5" spans="1:21">
-      <c r="A88" s="22">
-        <v>430057</v>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+    </row>
+    <row r="88" ht="14.4" spans="1:21">
+      <c r="A88" s="21">
+        <v>430049</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>16</v>
@@ -6921,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J88" s="18">
         <v>1</v>
@@ -6931,22 +7880,22 @@
       <c r="M88" s="1">
         <v>-1</v>
       </c>
-      <c r="N88" s="20" t="s">
-        <v>186</v>
+      <c r="N88" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="O88" s="7">
         <v>1</v>
       </c>
       <c r="P88" s="15"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="21"/>
-    </row>
-    <row r="89" ht="13.5" spans="1:21">
-      <c r="A89" s="22">
-        <v>430058</v>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+    </row>
+    <row r="89" ht="14.4" spans="1:21">
+      <c r="A89" s="21">
+        <v>430050</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>16</v>
@@ -6967,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J89" s="18">
         <v>1</v>
@@ -6977,22 +7926,22 @@
       <c r="M89" s="1">
         <v>-1</v>
       </c>
-      <c r="N89" s="20" t="s">
-        <v>193</v>
+      <c r="N89" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="O89" s="7">
         <v>1</v>
       </c>
       <c r="P89" s="15"/>
-      <c r="T89" s="21"/>
-      <c r="U89" s="21"/>
-    </row>
-    <row r="90" ht="13.5" spans="1:21">
-      <c r="A90" s="22">
-        <v>430059</v>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+    </row>
+    <row r="90" ht="14.4" spans="1:16">
+      <c r="A90" s="21">
+        <v>430051</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>16</v>
@@ -7013,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J90" s="18">
         <v>1</v>
@@ -7023,22 +7972,20 @@
       <c r="M90" s="1">
         <v>-1</v>
       </c>
-      <c r="N90" s="20" t="s">
-        <v>193</v>
+      <c r="N90" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="O90" s="7">
         <v>1</v>
       </c>
       <c r="P90" s="15"/>
-      <c r="T90" s="21"/>
-      <c r="U90" s="21"/>
-    </row>
-    <row r="91" ht="13.5" spans="1:21">
-      <c r="A91" s="22">
-        <v>430060</v>
+    </row>
+    <row r="91" ht="14.4" spans="1:21">
+      <c r="A91" s="21">
+        <v>430052</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>16</v>
@@ -7059,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J91" s="18">
         <v>1</v>
@@ -7069,22 +8016,22 @@
       <c r="M91" s="1">
         <v>-1</v>
       </c>
-      <c r="N91" s="20" t="s">
-        <v>193</v>
+      <c r="N91" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="O91" s="7">
         <v>1</v>
       </c>
       <c r="P91" s="15"/>
-      <c r="T91" s="21"/>
-      <c r="U91" s="21"/>
-    </row>
-    <row r="92" ht="13.5" spans="1:21">
-      <c r="A92" s="22">
-        <v>430061</v>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+    </row>
+    <row r="92" ht="14.4" spans="1:21">
+      <c r="A92" s="21">
+        <v>430053</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>16</v>
@@ -7105,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J92" s="18">
         <v>1</v>
@@ -7115,22 +8062,22 @@
       <c r="M92" s="1">
         <v>-1</v>
       </c>
-      <c r="N92" s="20" t="s">
-        <v>193</v>
+      <c r="N92" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="O92" s="7">
         <v>1</v>
       </c>
       <c r="P92" s="15"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-    </row>
-    <row r="93" ht="13.5" spans="1:21">
-      <c r="A93" s="22">
-        <v>430062</v>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+    </row>
+    <row r="93" ht="14.4" spans="1:21">
+      <c r="A93" s="21">
+        <v>430054</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>16</v>
@@ -7151,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J93" s="18">
         <v>1</v>
@@ -7161,22 +8108,22 @@
       <c r="M93" s="1">
         <v>-1</v>
       </c>
-      <c r="N93" s="20" t="s">
-        <v>193</v>
+      <c r="N93" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="O93" s="7">
         <v>1</v>
       </c>
       <c r="P93" s="15"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="21"/>
-    </row>
-    <row r="94" ht="13.5" spans="1:21">
-      <c r="A94" s="22">
-        <v>430063</v>
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+    </row>
+    <row r="94" ht="14.4" spans="1:16">
+      <c r="A94" s="21">
+        <v>430055</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>16</v>
@@ -7197,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J94" s="18">
         <v>1</v>
@@ -7207,22 +8154,20 @@
       <c r="M94" s="1">
         <v>-1</v>
       </c>
-      <c r="N94" s="20" t="s">
-        <v>193</v>
+      <c r="N94" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="O94" s="7">
         <v>1</v>
       </c>
       <c r="P94" s="15"/>
-      <c r="T94" s="21"/>
-      <c r="U94" s="21"/>
-    </row>
-    <row r="95" ht="13.5" spans="1:21">
-      <c r="A95" s="22">
-        <v>430064</v>
+    </row>
+    <row r="95" ht="14.4" spans="1:21">
+      <c r="A95" s="21">
+        <v>430056</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>16</v>
@@ -7243,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J95" s="18">
         <v>1</v>
@@ -7253,22 +8198,22 @@
       <c r="M95" s="1">
         <v>-1</v>
       </c>
-      <c r="N95" s="20" t="s">
-        <v>200</v>
+      <c r="N95" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="O95" s="7">
         <v>1</v>
       </c>
       <c r="P95" s="15"/>
-      <c r="T95" s="21"/>
-      <c r="U95" s="21"/>
-    </row>
-    <row r="96" customFormat="1" ht="13.5" spans="1:21">
-      <c r="A96" s="22">
-        <v>430066</v>
+      <c r="T95" s="20"/>
+      <c r="U95" s="20"/>
+    </row>
+    <row r="96" ht="14.4" spans="1:21">
+      <c r="A96" s="21">
+        <v>430057</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>16</v>
@@ -7289,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J96" s="18">
         <v>1</v>
@@ -7299,265 +8244,1871 @@
       <c r="M96" s="1">
         <v>-1</v>
       </c>
-      <c r="N96" s="20" t="s">
+      <c r="N96" s="23" t="s">
         <v>202</v>
       </c>
       <c r="O96" s="7">
         <v>1</v>
       </c>
       <c r="P96" s="15"/>
-      <c r="T96" s="21"/>
-      <c r="U96" s="21"/>
-    </row>
-    <row r="97" ht="13.5" spans="1:21">
-      <c r="A97" s="22">
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+    </row>
+    <row r="97" ht="14.4" spans="1:21">
+      <c r="A97" s="21">
+        <v>430058</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="8">
+        <v>0</v>
+      </c>
+      <c r="F97" s="8">
+        <v>0</v>
+      </c>
+      <c r="G97" s="8">
+        <v>0</v>
+      </c>
+      <c r="H97" s="8">
+        <v>0</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J97" s="18">
+        <v>1</v>
+      </c>
+      <c r="K97" s="19"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N97" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O97" s="7">
+        <v>1</v>
+      </c>
+      <c r="P97" s="15"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+    </row>
+    <row r="98" ht="14.4" spans="1:16">
+      <c r="A98" s="21">
+        <v>430059</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="8">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>0</v>
+      </c>
+      <c r="G98" s="8">
+        <v>0</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J98" s="18">
+        <v>1</v>
+      </c>
+      <c r="K98" s="19"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N98" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O98" s="7">
+        <v>1</v>
+      </c>
+      <c r="P98" s="15"/>
+    </row>
+    <row r="99" ht="14.4" spans="1:21">
+      <c r="A99" s="21">
+        <v>430060</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="8">
+        <v>0</v>
+      </c>
+      <c r="F99" s="8">
+        <v>0</v>
+      </c>
+      <c r="G99" s="8">
+        <v>0</v>
+      </c>
+      <c r="H99" s="8">
+        <v>0</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J99" s="18">
+        <v>1</v>
+      </c>
+      <c r="K99" s="19"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N99" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O99" s="7">
+        <v>1</v>
+      </c>
+      <c r="P99" s="15"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+    </row>
+    <row r="100" ht="14.4" spans="1:21">
+      <c r="A100" s="21">
+        <v>430061</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="8">
+        <v>0</v>
+      </c>
+      <c r="F100" s="8">
+        <v>0</v>
+      </c>
+      <c r="G100" s="8">
+        <v>0</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J100" s="18">
+        <v>1</v>
+      </c>
+      <c r="K100" s="19"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N100" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O100" s="7">
+        <v>1</v>
+      </c>
+      <c r="P100" s="15"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+    </row>
+    <row r="101" ht="14.4" spans="1:21">
+      <c r="A101" s="21">
+        <v>430062</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="8">
+        <v>0</v>
+      </c>
+      <c r="F101" s="8">
+        <v>0</v>
+      </c>
+      <c r="G101" s="8">
+        <v>0</v>
+      </c>
+      <c r="H101" s="8">
+        <v>0</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J101" s="18">
+        <v>1</v>
+      </c>
+      <c r="K101" s="19"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N101" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O101" s="7">
+        <v>1</v>
+      </c>
+      <c r="P101" s="15"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="20"/>
+    </row>
+    <row r="102" ht="14.4" spans="1:16">
+      <c r="A102" s="21">
+        <v>430063</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="8">
+        <v>0</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0</v>
+      </c>
+      <c r="G102" s="8">
+        <v>0</v>
+      </c>
+      <c r="H102" s="8">
+        <v>0</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J102" s="18">
+        <v>1</v>
+      </c>
+      <c r="K102" s="19"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N102" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O102" s="7">
+        <v>1</v>
+      </c>
+      <c r="P102" s="15"/>
+    </row>
+    <row r="103" ht="14.4" spans="1:21">
+      <c r="A103" s="21">
+        <v>430064</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0</v>
+      </c>
+      <c r="G103" s="8">
+        <v>0</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J103" s="18">
+        <v>1</v>
+      </c>
+      <c r="K103" s="19"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N103" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O103" s="7">
+        <v>1</v>
+      </c>
+      <c r="P103" s="15"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+    </row>
+    <row r="104" customFormat="1" ht="14.4" spans="1:21">
+      <c r="A104" s="21">
+        <v>430066</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="8">
+        <v>0</v>
+      </c>
+      <c r="F104" s="8">
+        <v>0</v>
+      </c>
+      <c r="G104" s="8">
+        <v>0</v>
+      </c>
+      <c r="H104" s="8">
+        <v>0</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J104" s="18">
+        <v>1</v>
+      </c>
+      <c r="K104" s="19"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N104" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="O104" s="7">
+        <v>1</v>
+      </c>
+      <c r="P104" s="15"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="20"/>
+    </row>
+    <row r="105" ht="14.4" spans="1:21">
+      <c r="A105" s="21">
         <v>430067</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="5">
-        <v>0</v>
-      </c>
-      <c r="F97" s="5">
-        <v>0</v>
-      </c>
-      <c r="G97" s="5">
-        <v>0</v>
-      </c>
-      <c r="H97" s="5">
-        <v>0</v>
-      </c>
-      <c r="I97" s="5">
+      <c r="B105" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0</v>
+      </c>
+      <c r="H105" s="5">
+        <v>0</v>
+      </c>
+      <c r="I105" s="5">
         <v>117</v>
       </c>
-      <c r="J97" s="12">
+      <c r="J105" s="12">
         <v>2</v>
       </c>
-      <c r="K97" s="13" t="s">
+      <c r="K105" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L97" s="12">
+      <c r="L105" s="12">
         <v>80</v>
       </c>
-      <c r="M97" s="1">
+      <c r="M105" s="1">
         <v>120</v>
       </c>
-      <c r="N97" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="O97" s="14">
+      <c r="N105" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="O105" s="14">
         <v>480</v>
       </c>
-      <c r="P97" s="15"/>
-      <c r="T97" s="21"/>
-      <c r="U97" s="21"/>
-    </row>
-    <row r="98" ht="13.5" spans="1:21">
-      <c r="A98" s="22">
+      <c r="P105" s="15"/>
+      <c r="T105" s="20"/>
+      <c r="U105" s="20"/>
+    </row>
+    <row r="106" ht="14.4" spans="1:21">
+      <c r="A106" s="21">
         <v>430068</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="5">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5">
-        <v>0</v>
-      </c>
-      <c r="G98" s="5">
-        <v>0</v>
-      </c>
-      <c r="H98" s="5">
-        <v>0</v>
-      </c>
-      <c r="I98" s="5">
+      <c r="B106" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0</v>
+      </c>
+      <c r="H106" s="5">
+        <v>0</v>
+      </c>
+      <c r="I106" s="5">
         <v>113</v>
       </c>
-      <c r="J98" s="12">
+      <c r="J106" s="12">
         <v>2</v>
       </c>
-      <c r="K98" s="13" t="s">
+      <c r="K106" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L98" s="12">
+      <c r="L106" s="12">
         <v>125</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M106" s="1">
         <v>120</v>
       </c>
-      <c r="N98" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="O98" s="14">
+      <c r="N106" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="O106" s="14">
         <v>480</v>
       </c>
-      <c r="P98" s="15"/>
-      <c r="T98" s="21"/>
-      <c r="U98" s="21"/>
-    </row>
-    <row r="99" ht="13.5" spans="1:21">
-      <c r="A99" s="22">
+      <c r="P106" s="15"/>
+      <c r="T106" s="20"/>
+      <c r="U106" s="20"/>
+    </row>
+    <row r="107" ht="14.4" spans="1:21">
+      <c r="A107" s="21">
         <v>430069</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="5">
-        <v>0</v>
-      </c>
-      <c r="F99" s="5">
-        <v>0</v>
-      </c>
-      <c r="G99" s="5">
-        <v>0</v>
-      </c>
-      <c r="H99" s="5">
-        <v>0</v>
-      </c>
-      <c r="I99" s="5">
+      <c r="B107" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0</v>
+      </c>
+      <c r="I107" s="5">
         <v>170</v>
       </c>
-      <c r="J99" s="12">
+      <c r="J107" s="12">
         <v>2</v>
       </c>
-      <c r="K99" s="13" t="s">
+      <c r="K107" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L99" s="12">
+      <c r="L107" s="12">
         <v>135</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M107" s="1">
         <v>120</v>
       </c>
-      <c r="N99" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="O99" s="14">
+      <c r="N107" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="O107" s="14">
         <v>4127</v>
       </c>
-      <c r="P99" s="15"/>
-      <c r="T99" s="21"/>
-      <c r="U99" s="21"/>
-    </row>
-    <row r="100" ht="13.5" spans="1:21">
-      <c r="A100" s="22">
+      <c r="P107" s="15"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+    </row>
+    <row r="108" ht="14.4" spans="1:21">
+      <c r="A108" s="21">
         <v>430070</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="5">
-        <v>0</v>
-      </c>
-      <c r="F100" s="5">
-        <v>0</v>
-      </c>
-      <c r="G100" s="5">
-        <v>0</v>
-      </c>
-      <c r="H100" s="5">
-        <v>0</v>
-      </c>
-      <c r="I100" s="5">
+      <c r="B108" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
+      <c r="H108" s="5">
+        <v>0</v>
+      </c>
+      <c r="I108" s="5">
         <v>122</v>
       </c>
-      <c r="J100" s="12">
+      <c r="J108" s="12">
         <v>2</v>
       </c>
-      <c r="K100" s="13" t="s">
+      <c r="K108" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L100" s="12">
+      <c r="L108" s="12">
         <v>80</v>
       </c>
-      <c r="M100" s="1">
+      <c r="M108" s="1">
         <v>120</v>
       </c>
-      <c r="N100" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="O100" s="14">
+      <c r="N108" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="O108" s="14">
         <v>4126</v>
       </c>
-      <c r="P100" s="15"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-    </row>
-    <row r="101" ht="13.5" spans="1:21">
-      <c r="A101" s="22">
+      <c r="P108" s="15"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="20"/>
+    </row>
+    <row r="109" ht="14.4" spans="1:21">
+      <c r="A109" s="21">
         <v>430071</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="5">
-        <v>0</v>
-      </c>
-      <c r="F101" s="5">
-        <v>0</v>
-      </c>
-      <c r="G101" s="5">
-        <v>0</v>
-      </c>
-      <c r="H101" s="5">
-        <v>0</v>
-      </c>
-      <c r="I101" s="5">
+      <c r="B109" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0</v>
+      </c>
+      <c r="H109" s="5">
+        <v>0</v>
+      </c>
+      <c r="I109" s="5">
         <v>112</v>
       </c>
-      <c r="J101" s="12">
+      <c r="J109" s="12">
         <v>2</v>
       </c>
-      <c r="K101" s="13" t="s">
+      <c r="K109" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L101" s="12">
+      <c r="L109" s="12">
         <v>150</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M109" s="1">
         <v>120</v>
       </c>
-      <c r="N101" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="O101" s="14">
+      <c r="N109" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="O109" s="14">
         <v>480</v>
       </c>
-      <c r="P101" s="15"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
+      <c r="P109" s="15"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="20"/>
+    </row>
+    <row r="110" ht="14.4" spans="1:21">
+      <c r="A110" s="21">
+        <v>430072</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="8">
+        <v>0</v>
+      </c>
+      <c r="F110" s="8">
+        <v>0</v>
+      </c>
+      <c r="G110" s="8">
+        <v>0</v>
+      </c>
+      <c r="H110" s="8">
+        <v>0</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J110" s="18">
+        <v>1</v>
+      </c>
+      <c r="K110" s="19"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N110" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O110" s="7">
+        <v>1</v>
+      </c>
+      <c r="P110" s="15"/>
+      <c r="T110" s="20"/>
+      <c r="U110" s="20"/>
+    </row>
+    <row r="111" ht="14.4" spans="1:21">
+      <c r="A111" s="21">
+        <v>430073</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="8">
+        <v>0</v>
+      </c>
+      <c r="F111" s="8">
+        <v>0</v>
+      </c>
+      <c r="G111" s="8">
+        <v>0</v>
+      </c>
+      <c r="H111" s="8">
+        <v>0</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J111" s="18">
+        <v>1</v>
+      </c>
+      <c r="K111" s="19"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N111" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O111" s="7">
+        <v>1</v>
+      </c>
+      <c r="P111" s="15"/>
+      <c r="T111" s="20"/>
+      <c r="U111" s="20"/>
+    </row>
+    <row r="112" ht="14.4" spans="1:21">
+      <c r="A112" s="21">
+        <v>430074</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="8">
+        <v>0</v>
+      </c>
+      <c r="F112" s="8">
+        <v>0</v>
+      </c>
+      <c r="G112" s="8">
+        <v>0</v>
+      </c>
+      <c r="H112" s="8">
+        <v>0</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J112" s="18">
+        <v>1</v>
+      </c>
+      <c r="K112" s="19"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N112" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O112" s="7">
+        <v>1</v>
+      </c>
+      <c r="P112" s="15"/>
+      <c r="T112" s="20"/>
+      <c r="U112" s="20"/>
+    </row>
+    <row r="113" ht="14.4" spans="1:21">
+      <c r="A113" s="21">
+        <v>430075</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="8">
+        <v>0</v>
+      </c>
+      <c r="F113" s="8">
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
+        <v>0</v>
+      </c>
+      <c r="H113" s="8">
+        <v>0</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J113" s="18">
+        <v>1</v>
+      </c>
+      <c r="K113" s="19"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N113" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="O113" s="7">
+        <v>1</v>
+      </c>
+      <c r="P113" s="15"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+    </row>
+    <row r="114" ht="14.4" spans="1:21">
+      <c r="A114" s="21">
+        <v>430076</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0</v>
+      </c>
+      <c r="G114" s="8">
+        <v>0</v>
+      </c>
+      <c r="H114" s="8">
+        <v>0</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J114" s="18">
+        <v>1</v>
+      </c>
+      <c r="K114" s="19"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N114" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="O114" s="7">
+        <v>1</v>
+      </c>
+      <c r="P114" s="15"/>
+      <c r="T114" s="20"/>
+      <c r="U114" s="20"/>
+    </row>
+    <row r="115" ht="14.4" spans="1:21">
+      <c r="A115" s="21">
+        <v>430077</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="8">
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
+        <v>0</v>
+      </c>
+      <c r="H115" s="8">
+        <v>0</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J115" s="18">
+        <v>1</v>
+      </c>
+      <c r="K115" s="19"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N115" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="O115" s="7">
+        <v>1</v>
+      </c>
+      <c r="P115" s="15"/>
+      <c r="T115" s="20"/>
+      <c r="U115" s="20"/>
+    </row>
+    <row r="116" ht="14.4" spans="1:21">
+      <c r="A116" s="21">
+        <v>430078</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="8">
+        <v>0</v>
+      </c>
+      <c r="F116" s="8">
+        <v>0</v>
+      </c>
+      <c r="G116" s="8">
+        <v>0</v>
+      </c>
+      <c r="H116" s="8">
+        <v>0</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J116" s="18">
+        <v>1</v>
+      </c>
+      <c r="K116" s="19"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N116" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="O116" s="7">
+        <v>1</v>
+      </c>
+      <c r="P116" s="15"/>
+      <c r="T116" s="20"/>
+      <c r="U116" s="20"/>
+    </row>
+    <row r="117" ht="14.4" spans="1:21">
+      <c r="A117" s="21">
+        <v>430079</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="8">
+        <v>0</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0</v>
+      </c>
+      <c r="G117" s="8">
+        <v>0</v>
+      </c>
+      <c r="H117" s="8">
+        <v>0</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J117" s="18">
+        <v>1</v>
+      </c>
+      <c r="K117" s="19"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N117" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="O117" s="7">
+        <v>1</v>
+      </c>
+      <c r="P117" s="15"/>
+      <c r="T117" s="20"/>
+      <c r="U117" s="20"/>
+    </row>
+    <row r="118" ht="14.4" spans="1:21">
+      <c r="A118" s="21">
+        <v>430080</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="8">
+        <v>0</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0</v>
+      </c>
+      <c r="G118" s="8">
+        <v>0</v>
+      </c>
+      <c r="H118" s="8">
+        <v>0</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J118" s="18">
+        <v>1</v>
+      </c>
+      <c r="K118" s="19"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N118" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="O118" s="7">
+        <v>1</v>
+      </c>
+      <c r="P118" s="15"/>
+      <c r="T118" s="20"/>
+      <c r="U118" s="20"/>
+    </row>
+    <row r="119" ht="14.4" spans="1:21">
+      <c r="A119" s="21">
+        <v>430081</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="8">
+        <v>0</v>
+      </c>
+      <c r="F119" s="8">
+        <v>0</v>
+      </c>
+      <c r="G119" s="8">
+        <v>0</v>
+      </c>
+      <c r="H119" s="8">
+        <v>0</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J119" s="18">
+        <v>1</v>
+      </c>
+      <c r="K119" s="19"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N119" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="O119" s="7">
+        <v>1</v>
+      </c>
+      <c r="P119" s="15"/>
+      <c r="T119" s="20"/>
+      <c r="U119" s="20"/>
+    </row>
+    <row r="120" ht="14.4" spans="1:21">
+      <c r="A120" s="21">
+        <v>430082</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="8">
+        <v>0</v>
+      </c>
+      <c r="F120" s="8">
+        <v>0</v>
+      </c>
+      <c r="G120" s="8">
+        <v>0</v>
+      </c>
+      <c r="H120" s="8">
+        <v>0</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J120" s="18">
+        <v>1</v>
+      </c>
+      <c r="K120" s="19"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N120" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="O120" s="7">
+        <v>1</v>
+      </c>
+      <c r="P120" s="15"/>
+      <c r="T120" s="20"/>
+      <c r="U120" s="20"/>
+    </row>
+    <row r="121" ht="14.4" spans="1:21">
+      <c r="A121" s="21">
+        <v>430083</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="8">
+        <v>0</v>
+      </c>
+      <c r="F121" s="8">
+        <v>0</v>
+      </c>
+      <c r="G121" s="8">
+        <v>0</v>
+      </c>
+      <c r="H121" s="8">
+        <v>0</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J121" s="18">
+        <v>1</v>
+      </c>
+      <c r="K121" s="19"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N121" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O121" s="7">
+        <v>1</v>
+      </c>
+      <c r="P121" s="15"/>
+      <c r="T121" s="20"/>
+      <c r="U121" s="20"/>
+    </row>
+    <row r="122" ht="14.4" spans="1:21">
+      <c r="A122" s="21">
+        <v>430084</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="8">
+        <v>0</v>
+      </c>
+      <c r="F122" s="8">
+        <v>0</v>
+      </c>
+      <c r="G122" s="8">
+        <v>0</v>
+      </c>
+      <c r="H122" s="8">
+        <v>0</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J122" s="18">
+        <v>1</v>
+      </c>
+      <c r="K122" s="19"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N122" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="O122" s="7">
+        <v>1</v>
+      </c>
+      <c r="P122" s="15"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+    </row>
+    <row r="123" ht="14.4" spans="1:21">
+      <c r="A123" s="21">
+        <v>430085</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="8">
+        <v>0</v>
+      </c>
+      <c r="F123" s="8">
+        <v>0</v>
+      </c>
+      <c r="G123" s="8">
+        <v>0</v>
+      </c>
+      <c r="H123" s="8">
+        <v>0</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J123" s="18">
+        <v>1</v>
+      </c>
+      <c r="K123" s="19"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N123" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="O123" s="7">
+        <v>1</v>
+      </c>
+      <c r="P123" s="15"/>
+      <c r="T123" s="20"/>
+      <c r="U123" s="20"/>
+    </row>
+    <row r="124" ht="14.4" spans="1:21">
+      <c r="A124" s="21">
+        <v>430086</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="8">
+        <v>0</v>
+      </c>
+      <c r="F124" s="8">
+        <v>0</v>
+      </c>
+      <c r="G124" s="8">
+        <v>0</v>
+      </c>
+      <c r="H124" s="8">
+        <v>0</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J124" s="18">
+        <v>1</v>
+      </c>
+      <c r="K124" s="19"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N124" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O124" s="7">
+        <v>1</v>
+      </c>
+      <c r="P124" s="15"/>
+      <c r="T124" s="20"/>
+      <c r="U124" s="20"/>
+    </row>
+    <row r="125" ht="14.4" spans="1:21">
+      <c r="A125" s="21">
+        <v>430087</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="8">
+        <v>0</v>
+      </c>
+      <c r="F125" s="8">
+        <v>0</v>
+      </c>
+      <c r="G125" s="8">
+        <v>0</v>
+      </c>
+      <c r="H125" s="8">
+        <v>0</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J125" s="18">
+        <v>1</v>
+      </c>
+      <c r="K125" s="19"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N125" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="O125" s="7">
+        <v>1</v>
+      </c>
+      <c r="P125" s="15"/>
+      <c r="T125" s="20"/>
+      <c r="U125" s="20"/>
+    </row>
+    <row r="126" ht="14.4" spans="1:21">
+      <c r="A126" s="21">
+        <v>430088</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="8">
+        <v>0</v>
+      </c>
+      <c r="F126" s="8">
+        <v>0</v>
+      </c>
+      <c r="G126" s="8">
+        <v>0</v>
+      </c>
+      <c r="H126" s="8">
+        <v>0</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J126" s="18">
+        <v>1</v>
+      </c>
+      <c r="K126" s="19"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N126" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="O126" s="7">
+        <v>1</v>
+      </c>
+      <c r="P126" s="15"/>
+      <c r="T126" s="20"/>
+      <c r="U126" s="20"/>
+    </row>
+    <row r="127" ht="14.4" spans="1:21">
+      <c r="A127" s="21">
+        <v>430089</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="8">
+        <v>0</v>
+      </c>
+      <c r="F127" s="8">
+        <v>0</v>
+      </c>
+      <c r="G127" s="8">
+        <v>0</v>
+      </c>
+      <c r="H127" s="8">
+        <v>0</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J127" s="18">
+        <v>1</v>
+      </c>
+      <c r="K127" s="19"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N127" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="O127" s="7">
+        <v>1</v>
+      </c>
+      <c r="P127" s="15"/>
+      <c r="T127" s="20"/>
+      <c r="U127" s="20"/>
+    </row>
+    <row r="128" ht="14.4" spans="1:21">
+      <c r="A128" s="21">
+        <v>430090</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="8">
+        <v>0</v>
+      </c>
+      <c r="F128" s="8">
+        <v>0</v>
+      </c>
+      <c r="G128" s="8">
+        <v>0</v>
+      </c>
+      <c r="H128" s="8">
+        <v>0</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J128" s="18">
+        <v>1</v>
+      </c>
+      <c r="K128" s="19"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N128" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O128" s="7">
+        <v>1</v>
+      </c>
+      <c r="P128" s="15"/>
+      <c r="T128" s="20"/>
+      <c r="U128" s="20"/>
+    </row>
+    <row r="129" ht="14.4" spans="1:21">
+      <c r="A129" s="21">
+        <v>430091</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="8">
+        <v>0</v>
+      </c>
+      <c r="F129" s="8">
+        <v>0</v>
+      </c>
+      <c r="G129" s="8">
+        <v>0</v>
+      </c>
+      <c r="H129" s="8">
+        <v>0</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J129" s="18">
+        <v>1</v>
+      </c>
+      <c r="K129" s="19"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N129" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="O129" s="7">
+        <v>1</v>
+      </c>
+      <c r="P129" s="15"/>
+      <c r="T129" s="20"/>
+      <c r="U129" s="20"/>
+    </row>
+    <row r="130" ht="14.4" spans="1:21">
+      <c r="A130" s="21">
+        <v>430092</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="8">
+        <v>0</v>
+      </c>
+      <c r="F130" s="8">
+        <v>0</v>
+      </c>
+      <c r="G130" s="8">
+        <v>0</v>
+      </c>
+      <c r="H130" s="8">
+        <v>0</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J130" s="18">
+        <v>1</v>
+      </c>
+      <c r="K130" s="19"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N130" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="O130" s="7">
+        <v>1</v>
+      </c>
+      <c r="P130" s="15"/>
+      <c r="T130" s="20"/>
+      <c r="U130" s="20"/>
+    </row>
+    <row r="131" ht="14.4" spans="1:21">
+      <c r="A131" s="21">
+        <v>430093</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="8">
+        <v>0</v>
+      </c>
+      <c r="F131" s="8">
+        <v>0</v>
+      </c>
+      <c r="G131" s="8">
+        <v>0</v>
+      </c>
+      <c r="H131" s="8">
+        <v>0</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J131" s="18">
+        <v>1</v>
+      </c>
+      <c r="K131" s="19"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N131" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="O131" s="7">
+        <v>1</v>
+      </c>
+      <c r="P131" s="15"/>
+      <c r="T131" s="20"/>
+      <c r="U131" s="20"/>
+    </row>
+    <row r="132" ht="14.4" spans="1:21">
+      <c r="A132" s="21">
+        <v>430094</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="8">
+        <v>0</v>
+      </c>
+      <c r="F132" s="8">
+        <v>0</v>
+      </c>
+      <c r="G132" s="8">
+        <v>0</v>
+      </c>
+      <c r="H132" s="8">
+        <v>0</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J132" s="18">
+        <v>1</v>
+      </c>
+      <c r="K132" s="19"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N132" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="O132" s="7">
+        <v>1</v>
+      </c>
+      <c r="P132" s="15"/>
+      <c r="T132" s="20"/>
+      <c r="U132" s="20"/>
+    </row>
+    <row r="133" ht="14.4" spans="1:21">
+      <c r="A133" s="21">
+        <v>430095</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="8">
+        <v>0</v>
+      </c>
+      <c r="F133" s="8">
+        <v>0</v>
+      </c>
+      <c r="G133" s="8">
+        <v>0</v>
+      </c>
+      <c r="H133" s="8">
+        <v>0</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J133" s="18">
+        <v>1</v>
+      </c>
+      <c r="K133" s="19"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N133" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="O133" s="7">
+        <v>1</v>
+      </c>
+      <c r="P133" s="15"/>
+      <c r="T133" s="20"/>
+      <c r="U133" s="20"/>
+    </row>
+    <row r="134" ht="14.4" spans="1:21">
+      <c r="A134" s="21">
+        <v>430096</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="8">
+        <v>0</v>
+      </c>
+      <c r="F134" s="8">
+        <v>0</v>
+      </c>
+      <c r="G134" s="8">
+        <v>0</v>
+      </c>
+      <c r="H134" s="8">
+        <v>0</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J134" s="18">
+        <v>1</v>
+      </c>
+      <c r="K134" s="19"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N134" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O134" s="7">
+        <v>1</v>
+      </c>
+      <c r="P134" s="15"/>
+      <c r="T134" s="20"/>
+      <c r="U134" s="20"/>
+    </row>
+    <row r="135" ht="14.4" spans="1:21">
+      <c r="A135" s="21">
+        <v>430097</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="8">
+        <v>0</v>
+      </c>
+      <c r="F135" s="8">
+        <v>0</v>
+      </c>
+      <c r="G135" s="8">
+        <v>0</v>
+      </c>
+      <c r="H135" s="8">
+        <v>0</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J135" s="18">
+        <v>1</v>
+      </c>
+      <c r="K135" s="19"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N135" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="O135" s="7">
+        <v>1</v>
+      </c>
+      <c r="P135" s="15"/>
+      <c r="T135" s="20"/>
+      <c r="U135" s="20"/>
+    </row>
+    <row r="136" ht="14.4" spans="1:21">
+      <c r="A136" s="21">
+        <v>430098</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="8">
+        <v>0</v>
+      </c>
+      <c r="F136" s="8">
+        <v>0</v>
+      </c>
+      <c r="G136" s="8">
+        <v>0</v>
+      </c>
+      <c r="H136" s="8">
+        <v>0</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J136" s="18">
+        <v>1</v>
+      </c>
+      <c r="K136" s="19"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N136" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="O136" s="7">
+        <v>1</v>
+      </c>
+      <c r="P136" s="15"/>
+      <c r="T136" s="20"/>
+      <c r="U136" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
